--- a/dashboards_v2/Finance_Dashboard_Final.xlsx
+++ b/dashboards_v2/Finance_Dashboard_Final.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LIQUIDITY_MONITOR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PROFIT_CONTROL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BALANCE_SHEET_HEALTH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DEBT_MANAGER" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="UPLOAD_READY_FINANCE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CROSS_REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="LIQUIDITY MONITOR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PROFIT CONTROL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BALANCE SHEET HEALTH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DEBT MANAGER" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="UPLOAD READY FINANCE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CROSS REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -335,12 +335,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'LIQUIDITY_MONITOR'!$B$14:$I$14</f>
+              <f>'LIQUIDITY MONITOR'!$B$14:$I$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'LIQUIDITY_MONITOR'!$B$33:$I$33</f>
+              <f>'LIQUIDITY MONITOR'!$B$33:$I$33</f>
             </numRef>
           </val>
         </ser>
@@ -437,7 +437,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'BALANCE_SHEET_HEALTH'!I12</f>
+              <f>'BALANCE SHEET HEALTH'!I12</f>
             </strRef>
           </tx>
           <spPr>
@@ -447,12 +447,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'BALANCE_SHEET_HEALTH'!$H$13:$H$14</f>
+              <f>'BALANCE SHEET HEALTH'!$H$13:$H$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'BALANCE_SHEET_HEALTH'!$I$13:$I$14</f>
+              <f>'BALANCE SHEET HEALTH'!$I$13:$I$14</f>
             </numRef>
           </val>
         </ser>
@@ -467,7 +467,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'BALANCE_SHEET_HEALTH'!J12</f>
+              <f>'BALANCE SHEET HEALTH'!J12</f>
             </strRef>
           </tx>
           <spPr>
@@ -488,7 +488,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'BALANCE_SHEET_HEALTH'!$J$13:$J$14</f>
+              <f>'BALANCE SHEET HEALTH'!$J$13:$J$14</f>
             </numRef>
           </val>
         </ser>

--- a/dashboards_v2/Finance_Dashboard_Final.xlsx
+++ b/dashboards_v2/Finance_Dashboard_Final.xlsx
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B10" s="26" t="n">
-        <v>31200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>377000</v>
+        <v>15834</v>
       </c>
     </row>
     <row r="16">
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="18">
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>379940</v>
+        <v>143774</v>
       </c>
     </row>
     <row r="20">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B21" s="26" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="22">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
